--- a/StructureDefinition-ext-R5-Permission.xlsx
+++ b/StructureDefinition-ext-R5-Permission.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Permission.xlsx
+++ b/StructureDefinition-ext-R5-Permission.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="377">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.status</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -435,6 +438,9 @@
     <t>Extension.extension:asserter.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.asserter</t>
+  </si>
+  <si>
     <t>Extension.extension:asserter.value[x]</t>
   </si>
   <si>
@@ -466,6 +472,9 @@
     <t>Extension.extension:date.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.date</t>
+  </si>
+  <si>
     <t>Extension.extension:date.value[x]</t>
   </si>
   <si>
@@ -497,6 +506,9 @@
     <t>Extension.extension:validity.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.validity</t>
+  </si>
+  <si>
     <t>Extension.extension:validity.value[x]</t>
   </si>
   <si>
@@ -558,6 +570,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.justification.basis</t>
+  </si>
+  <si>
     <t>Extension.extension:justification.extension:basis.value[x]</t>
   </si>
   <si>
@@ -604,6 +619,9 @@
     <t>Extension.extension:justification.extension:evidence.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.justification.evidence</t>
+  </si>
+  <si>
     <t>Extension.extension:justification.extension:evidence.value[x]</t>
   </si>
   <si>
@@ -657,6 +675,9 @@
     <t>Extension.extension:combining.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.combining</t>
+  </si>
+  <si>
     <t>Extension.extension:combining.value[x]</t>
   </si>
   <si>
@@ -705,6 +726,9 @@
     <t>Extension.extension:rule.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.type</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:type.value[x]</t>
   </si>
   <si>
@@ -798,6 +822,9 @@
     <t>Extension.extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.data.resource.meaning</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:data.extension:resource.extension:meaning.value[x]</t>
   </si>
   <si>
@@ -834,6 +861,9 @@
     <t>Extension.extension:rule.extension:data.extension:resource.extension:reference.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.data.resource.reference</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:data.extension:resource.extension:reference.value[x]</t>
   </si>
   <si>
@@ -877,6 +907,9 @@
   </si>
   <si>
     <t>Extension.extension:rule.extension:data.extension:security.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.data.security</t>
   </si>
   <si>
     <t>Extension.extension:rule.extension:data.extension:security.value[x]</t>
@@ -913,6 +946,9 @@
     <t>Extension.extension:rule.extension:data.extension:period.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.data.period</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:data.extension:period.value[x]</t>
   </si>
   <si>
@@ -938,6 +974,9 @@
   </si>
   <si>
     <t>Extension.extension:rule.extension:data.extension:expression.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.data.expression</t>
   </si>
   <si>
     <t>Extension.extension:rule.extension:data.extension:expression.value[x]</t>
@@ -998,6 +1037,9 @@
     <t>Extension.extension:rule.extension:activity.extension:actor.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.activity.actor</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:activity.extension:actor.value[x]</t>
   </si>
   <si>
@@ -1032,6 +1074,9 @@
     <t>Extension.extension:rule.extension:activity.extension:action.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.activity.action</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:activity.extension:action.value[x]</t>
   </si>
   <si>
@@ -1065,6 +1110,9 @@
     <t>Extension.extension:rule.extension:activity.extension:purpose.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.activity.purpose</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:activity.extension:purpose.value[x]</t>
   </si>
   <si>
@@ -1108,6 +1156,9 @@
   </si>
   <si>
     <t>Extension.extension:rule.extension:limit.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Permission.rule.limit</t>
   </si>
   <si>
     <t>Extension.extension:rule.extension:limit.value[x]</t>
@@ -2265,7 +2316,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2307,7 +2358,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2322,15 +2373,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2353,7 +2404,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -2410,7 +2461,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2422,21 +2473,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2461,14 +2512,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2537,7 +2588,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2640,7 +2691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2745,7 +2796,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2788,7 +2839,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2830,7 +2881,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2845,15 +2896,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2876,13 +2927,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2933,7 +2984,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2945,21 +2996,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2984,14 +3035,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3060,7 +3111,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3163,7 +3214,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3268,7 +3319,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3311,7 +3362,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3353,7 +3404,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3368,15 +3419,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3399,13 +3450,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3456,7 +3507,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3468,21 +3519,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3507,14 +3558,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3583,7 +3634,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3686,7 +3737,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3791,7 +3842,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3834,7 +3885,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3876,7 +3927,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3891,15 +3942,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3922,13 +3973,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3979,7 +4030,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3991,21 +4042,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4030,14 +4081,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4106,7 +4157,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4209,7 +4260,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4312,13 +4363,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4343,14 +4394,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4419,10 +4470,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4522,10 +4573,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4627,10 +4678,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4670,7 +4721,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4712,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4727,15 +4778,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4758,13 +4809,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4791,13 +4842,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4815,7 +4866,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4827,21 +4878,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4866,16 +4917,16 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4944,10 +4995,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5047,10 +5098,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5152,10 +5203,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5195,7 +5246,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5237,7 +5288,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -5252,15 +5303,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5283,16 +5334,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5342,7 +5393,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5354,15 +5405,15 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5405,7 +5456,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5447,7 +5498,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5462,15 +5513,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5493,13 +5544,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5550,7 +5601,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5562,21 +5613,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5601,16 +5652,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5679,7 +5730,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5782,7 +5833,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5887,7 +5938,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5930,7 +5981,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5972,7 +6023,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -5987,15 +6038,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6018,16 +6069,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6077,7 +6128,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6089,21 +6140,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6128,14 +6179,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6204,7 +6255,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6307,7 +6358,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6410,13 +6461,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6441,14 +6492,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6517,10 +6568,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6620,10 +6671,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6725,10 +6776,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6768,7 +6819,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6810,7 +6861,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6825,15 +6876,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6856,13 +6907,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6889,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -6913,7 +6964,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6925,21 +6976,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6964,14 +7015,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7040,10 +7091,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7143,10 +7194,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7246,13 +7297,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -7277,14 +7328,14 @@
         <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7353,10 +7404,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7456,10 +7507,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7559,13 +7610,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
@@ -7590,14 +7641,14 @@
         <v>94</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -7666,10 +7717,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7769,10 +7820,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7874,10 +7925,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7917,7 +7968,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>77</v>
@@ -7959,7 +8010,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
@@ -7974,15 +8025,15 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8005,13 +8056,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8038,13 +8089,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -8062,7 +8113,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8074,21 +8125,21 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
@@ -8113,14 +8164,14 @@
         <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -8189,10 +8240,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8292,10 +8343,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8397,10 +8448,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8440,7 +8491,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -8482,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
@@ -8497,15 +8548,15 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8528,13 +8579,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8585,7 +8636,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -8597,18 +8648,18 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8648,7 +8699,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -8690,7 +8741,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
@@ -8705,15 +8756,15 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8736,13 +8787,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8793,7 +8844,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -8805,21 +8856,21 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -8844,16 +8895,16 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -8922,10 +8973,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9025,10 +9076,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9130,10 +9181,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9173,7 +9224,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9215,7 +9266,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -9230,15 +9281,15 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9261,16 +9312,16 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9320,7 +9371,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9332,21 +9383,21 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9371,16 +9422,16 @@
         <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9449,10 +9500,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9552,10 +9603,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9657,10 +9708,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9700,7 +9751,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9742,7 +9793,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>86</v>
@@ -9757,15 +9808,15 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9788,16 +9839,16 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9847,7 +9898,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -9859,21 +9910,21 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -9898,14 +9949,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -9974,10 +10025,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10077,10 +10128,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10182,10 +10233,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10225,7 +10276,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10267,7 +10318,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>86</v>
@@ -10282,15 +10333,15 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10313,13 +10364,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10370,7 +10421,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -10382,18 +10433,18 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10433,7 +10484,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10475,7 +10526,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10490,15 +10541,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10521,13 +10572,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10578,7 +10629,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10590,21 +10641,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10629,14 +10680,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10705,10 +10756,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10808,10 +10859,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10911,13 +10962,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>77</v>
@@ -10942,14 +10993,14 @@
         <v>94</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -11018,10 +11069,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11121,10 +11172,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11226,10 +11277,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11269,7 +11320,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>77</v>
@@ -11311,7 +11362,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
@@ -11326,15 +11377,15 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11357,13 +11408,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11414,7 +11465,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -11426,21 +11477,21 @@
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
@@ -11465,16 +11516,16 @@
         <v>94</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -11543,10 +11594,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11646,10 +11697,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11751,10 +11802,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11794,7 +11845,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -11836,7 +11887,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>86</v>
@@ -11851,15 +11902,15 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11882,16 +11933,16 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -11917,13 +11968,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -11941,7 +11992,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -11953,21 +12004,21 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -11992,14 +12043,14 @@
         <v>94</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12068,10 +12119,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12171,10 +12222,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12276,10 +12327,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12319,7 +12370,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12361,7 +12412,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>86</v>
@@ -12376,15 +12427,15 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12407,13 +12458,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12440,13 +12491,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -12464,7 +12515,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -12476,18 +12527,18 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12527,7 +12578,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12569,7 +12620,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -12584,15 +12635,15 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12615,13 +12666,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12672,7 +12723,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -12684,21 +12735,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12723,14 +12774,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12799,10 +12850,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12902,10 +12953,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13007,10 +13058,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13050,7 +13101,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13092,7 +13143,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13107,15 +13158,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13138,13 +13189,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13195,7 +13246,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13207,15 +13258,15 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13258,7 +13309,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13300,7 +13351,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -13315,15 +13366,15 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13346,13 +13397,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13403,7 +13454,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -13415,18 +13466,18 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13508,7 +13559,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>86</v>
@@ -13523,15 +13574,15 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13554,13 +13605,13 @@
         <v>77</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -13611,7 +13662,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -13623,10 +13674,10 @@
         <v>77</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Permission.xlsx
+++ b/StructureDefinition-ext-R5-Permission.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -444,7 +444,7 @@
     <t>Extension.extension:asserter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
 </t>
   </si>
   <si>
@@ -583,15 +583,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Regulatory policy examples</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-policy-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:justification.extension:evidence</t>
   </si>
   <si>
@@ -625,7 +616,7 @@
     <t>Extension.extension:justification.extension:evidence.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -732,15 +723,6 @@
     <t>Extension.extension:rule.extension:type.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>How a rule statement is applied.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-provision-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:rule.extension:data</t>
   </si>
   <si>
@@ -829,12 +811,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>How a resource reference is interpreted when testing consent restrictions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-data-meaning-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:rule.extension:data.extension:resource.extension:reference</t>
@@ -1043,7 +1019,7 @@
     <t>Extension.extension:rule.extension:activity.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1080,12 +1056,6 @@
     <t>Extension.extension:rule.extension:activity.extension:action.value[x]</t>
   </si>
   <si>
-    <t>Detailed codes for the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-consent-action-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:rule.extension:activity.extension:purpose</t>
   </si>
   <si>
@@ -1114,15 +1084,6 @@
   </si>
   <si>
     <t>Extension.extension:rule.extension:activity.extension:purpose.value[x]</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-v3-PurposeOfUse-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:rule.extension:activity.url</t>
@@ -1520,8 +1481,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="109.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4842,13 +4803,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4886,13 +4847,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4917,16 +4878,16 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4995,7 +4956,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>173</v>
@@ -5098,7 +5059,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>175</v>
@@ -5203,7 +5164,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>177</v>
@@ -5246,7 +5207,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5308,7 +5269,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>180</v>
@@ -5334,16 +5295,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5413,7 +5374,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5456,7 +5417,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5518,7 +5479,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5544,13 +5505,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5621,13 +5582,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5652,16 +5613,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5730,7 +5691,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5833,7 +5794,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5938,7 +5899,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5981,7 +5942,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6043,7 +6004,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6072,13 +6033,13 @@
         <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6148,13 +6109,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6179,14 +6140,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6255,7 +6216,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6358,7 +6319,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6461,13 +6422,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6492,14 +6453,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6568,7 +6529,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>173</v>
@@ -6671,7 +6632,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>175</v>
@@ -6776,7 +6737,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>177</v>
@@ -6819,7 +6780,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6881,7 +6842,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>180</v>
@@ -6910,10 +6871,10 @@
         <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6940,13 +6901,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -6984,13 +6945,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7015,14 +6976,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7091,7 +7052,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>173</v>
@@ -7194,7 +7155,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>175</v>
@@ -7297,13 +7258,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -7328,14 +7289,14 @@
         <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7404,10 +7365,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7507,10 +7468,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7610,13 +7571,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
@@ -7641,14 +7602,14 @@
         <v>94</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -7717,10 +7678,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7820,10 +7781,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7925,10 +7886,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7968,7 +7929,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>77</v>
@@ -8030,10 +7991,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8059,10 +8020,10 @@
         <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8089,13 +8050,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -8133,13 +8094,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
@@ -8164,14 +8125,14 @@
         <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -8240,10 +8201,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8343,10 +8304,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8448,10 +8409,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8491,7 +8452,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -8553,10 +8514,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8579,13 +8540,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8656,10 +8617,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8699,7 +8660,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -8761,10 +8722,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8787,13 +8748,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8864,13 +8825,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -8895,16 +8856,16 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -8973,10 +8934,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9076,10 +9037,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9181,10 +9142,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9224,7 +9185,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9286,10 +9247,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9312,16 +9273,16 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9391,13 +9352,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9422,16 +9383,16 @@
         <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9500,10 +9461,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9603,10 +9564,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9708,10 +9669,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9751,7 +9712,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9813,10 +9774,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9842,13 +9803,13 @@
         <v>159</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9918,13 +9879,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -9949,14 +9910,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10025,10 +9986,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10128,10 +10089,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10233,10 +10194,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10276,7 +10237,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10338,10 +10299,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10364,13 +10325,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10441,7 +10402,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>177</v>
@@ -10484,7 +10445,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10546,7 +10507,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>180</v>
@@ -10572,13 +10533,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10649,13 +10610,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10680,14 +10641,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10756,7 +10717,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>173</v>
@@ -10859,7 +10820,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>175</v>
@@ -10962,13 +10923,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>77</v>
@@ -10993,14 +10954,14 @@
         <v>94</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -11069,10 +11030,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11172,10 +11133,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11277,10 +11238,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11320,7 +11281,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>77</v>
@@ -11382,10 +11343,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11408,13 +11369,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11485,13 +11446,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
@@ -11516,16 +11477,16 @@
         <v>94</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -11594,10 +11555,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11697,10 +11658,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11802,10 +11763,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11845,7 +11806,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -11907,10 +11868,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11936,13 +11897,13 @@
         <v>181</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -11968,13 +11929,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -12012,13 +11973,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12043,14 +12004,14 @@
         <v>94</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12119,10 +12080,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12222,10 +12183,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12327,10 +12288,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12370,7 +12331,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12432,10 +12393,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12461,10 +12422,10 @@
         <v>181</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12491,13 +12452,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -12535,7 +12496,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>177</v>
@@ -12578,7 +12539,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12640,7 +12601,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>180</v>
@@ -12666,13 +12627,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12743,13 +12704,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12774,14 +12735,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12850,7 +12811,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>173</v>
@@ -12953,7 +12914,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>175</v>
@@ -13058,7 +13019,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>177</v>
@@ -13101,7 +13062,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13163,7 +13124,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>180</v>
@@ -13192,10 +13153,10 @@
         <v>181</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13266,7 +13227,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13309,7 +13270,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13371,7 +13332,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -13397,13 +13358,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13605,13 +13566,13 @@
         <v>77</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>

--- a/StructureDefinition-ext-R5-Permission.xlsx
+++ b/StructureDefinition-ext-R5-Permission.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,6 +407,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes identifying the lifecycle stage of a product.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-permission-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -444,7 +453,7 @@
     <t>Extension.extension:asserter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
 </t>
   </si>
   <si>
@@ -583,6 +592,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Regulatory policy examples</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/consent-policy|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:justification.extension:evidence</t>
   </si>
   <si>
@@ -616,7 +634,7 @@
     <t>Extension.extension:justification.extension:evidence.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -672,6 +690,12 @@
     <t>Extension.extension:combining.value[x]</t>
   </si>
   <si>
+    <t>How the rules are to be combined.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-permission-rule-combining-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:rule</t>
   </si>
   <si>
@@ -723,6 +747,12 @@
     <t>Extension.extension:rule.extension:type.value[x]</t>
   </si>
   <si>
+    <t>How a rule statement is applied.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/consent-provision-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:data</t>
   </si>
   <si>
@@ -811,6 +841,12 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>How a resource reference is interpreted when testing consent restrictions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/consent-data-meaning|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:rule.extension:data.extension:resource.extension:reference</t>
@@ -1019,7 +1055,7 @@
     <t>Extension.extension:rule.extension:activity.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1056,6 +1092,12 @@
     <t>Extension.extension:rule.extension:activity.extension:action.value[x]</t>
   </si>
   <si>
+    <t>Detailed codes for the action.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/consent-action|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:activity.extension:purpose</t>
   </si>
   <si>
@@ -1086,6 +1128,15 @@
     <t>Extension.extension:rule.extension:activity.extension:purpose.value[x]</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|2014-03-26</t>
+  </si>
+  <si>
     <t>Extension.extension:rule.extension:activity.url</t>
   </si>
   <si>
@@ -1123,6 +1174,12 @@
   </si>
   <si>
     <t>Extension.extension:rule.extension:limit.value[x]</t>
+  </si>
+  <si>
+    <t>Obligations and Refrains</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-security-label-event-examples-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:rule.url</t>
@@ -1481,8 +1538,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="109.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2398,13 +2455,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2422,7 +2479,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2434,7 +2491,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2442,13 +2499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2473,14 +2530,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2549,7 +2606,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2652,7 +2709,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2757,7 +2814,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2800,7 +2857,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2862,7 +2919,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2888,13 +2945,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2945,7 +3002,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2957,7 +3014,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2965,13 +3022,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2996,14 +3053,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3072,7 +3129,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3175,7 +3232,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3280,7 +3337,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3323,7 +3380,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3385,7 +3442,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3411,13 +3468,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3468,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3480,7 +3537,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3488,13 +3545,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3519,14 +3576,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3595,7 +3652,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3698,7 +3755,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3803,7 +3860,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3846,7 +3903,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3908,7 +3965,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3934,13 +3991,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3991,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4003,7 +4060,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -4011,13 +4068,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4042,14 +4099,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4118,7 +4175,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4221,7 +4278,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4324,13 +4381,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4355,14 +4412,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4431,10 +4488,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4534,10 +4591,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4639,10 +4696,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4682,7 +4739,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4744,10 +4801,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4770,13 +4827,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4803,13 +4860,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4827,7 +4884,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4839,7 +4896,7 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>121</v>
@@ -4847,13 +4904,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4878,16 +4935,16 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4956,10 +5013,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5059,10 +5116,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5164,10 +5221,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5207,7 +5264,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5269,10 +5326,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5295,16 +5352,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5354,7 +5411,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5366,7 +5423,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>121</v>
@@ -5374,7 +5431,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5417,7 +5474,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5479,7 +5536,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5505,13 +5562,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5562,7 +5619,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5574,7 +5631,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5582,13 +5639,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5613,16 +5670,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5691,7 +5748,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5794,7 +5851,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5899,7 +5956,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5942,7 +5999,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6004,7 +6061,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6033,13 +6090,13 @@
         <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6065,13 +6122,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6146,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6101,7 +6158,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>121</v>
@@ -6109,13 +6166,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6140,14 +6197,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6216,7 +6273,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6319,7 +6376,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6422,13 +6479,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6453,14 +6510,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6529,10 +6586,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6632,10 +6689,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6737,10 +6794,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6780,7 +6837,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6842,10 +6899,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6871,10 +6928,10 @@
         <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6901,13 +6958,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -6925,7 +6982,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6937,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -6945,13 +7002,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6976,14 +7033,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7052,10 +7109,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7155,10 +7212,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7258,13 +7315,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -7289,14 +7346,14 @@
         <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7365,10 +7422,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7468,10 +7525,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7571,13 +7628,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
@@ -7602,14 +7659,14 @@
         <v>94</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -7678,10 +7735,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7781,10 +7838,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7886,10 +7943,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7929,7 +7986,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>77</v>
@@ -7991,10 +8048,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8020,10 +8077,10 @@
         <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8050,13 +8107,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -8074,7 +8131,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8086,7 +8143,7 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>121</v>
@@ -8094,13 +8151,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
@@ -8125,14 +8182,14 @@
         <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -8201,10 +8258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8304,10 +8361,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8409,10 +8466,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8452,7 +8509,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>77</v>
@@ -8514,10 +8571,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8540,13 +8597,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8597,7 +8654,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -8609,7 +8666,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>121</v>
@@ -8617,10 +8674,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8660,7 +8717,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -8722,10 +8779,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8748,13 +8805,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8805,7 +8862,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -8817,7 +8874,7 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>121</v>
@@ -8825,13 +8882,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -8856,16 +8913,16 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -8934,10 +8991,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9037,10 +9094,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9142,10 +9199,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9185,7 +9242,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9247,10 +9304,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9273,16 +9330,16 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9332,7 +9389,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9344,7 +9401,7 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>121</v>
@@ -9352,13 +9409,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9383,16 +9440,16 @@
         <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9461,10 +9518,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9564,10 +9621,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9669,10 +9726,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9712,7 +9769,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9774,10 +9831,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9800,16 +9857,16 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9859,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -9871,7 +9928,7 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>121</v>
@@ -9879,13 +9936,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -9910,14 +9967,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -9986,10 +10043,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10089,10 +10146,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10194,10 +10251,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10237,7 +10294,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10299,10 +10356,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10325,13 +10382,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10382,7 +10439,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -10394,7 +10451,7 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>121</v>
@@ -10402,10 +10459,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10445,7 +10502,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10507,10 +10564,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10533,13 +10590,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10590,7 +10647,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10602,7 +10659,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>121</v>
@@ -10610,13 +10667,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10641,14 +10698,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10717,10 +10774,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10820,10 +10877,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10923,13 +10980,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>77</v>
@@ -10954,14 +11011,14 @@
         <v>94</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -11030,10 +11087,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11133,10 +11190,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11238,10 +11295,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11281,7 +11338,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>77</v>
@@ -11343,10 +11400,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11369,13 +11426,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11426,7 +11483,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -11438,7 +11495,7 @@
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>121</v>
@@ -11446,13 +11503,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
@@ -11477,16 +11534,16 @@
         <v>94</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -11555,10 +11612,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11658,10 +11715,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11763,10 +11820,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11806,7 +11863,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -11868,10 +11925,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11894,16 +11951,16 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -11929,13 +11986,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -11953,7 +12010,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -11965,7 +12022,7 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>121</v>
@@ -11973,13 +12030,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12004,14 +12061,14 @@
         <v>94</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12080,10 +12137,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12183,10 +12240,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12288,10 +12345,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12331,7 +12388,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12393,10 +12450,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12419,13 +12476,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12452,13 +12509,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
@@ -12476,7 +12533,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -12488,7 +12545,7 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>121</v>
@@ -12496,10 +12553,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12539,7 +12596,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12601,10 +12658,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12627,13 +12684,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12684,7 +12741,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -12696,7 +12753,7 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>121</v>
@@ -12704,13 +12761,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12735,14 +12792,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12811,10 +12868,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12914,10 +12971,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13019,10 +13076,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13062,7 +13119,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13124,10 +13181,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13150,13 +13207,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13183,13 +13240,13 @@
         <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>77</v>
@@ -13207,7 +13264,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13219,7 +13276,7 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>121</v>
@@ -13227,7 +13284,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13270,7 +13327,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13332,7 +13389,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -13358,13 +13415,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13415,7 +13472,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -13427,7 +13484,7 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>121</v>
@@ -13540,10 +13597,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13566,13 +13623,13 @@
         <v>77</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -13623,7 +13680,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -13635,7 +13692,7 @@
         <v>77</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>121</v>
